--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -393,7 +393,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hospitalized &gt;7 days @V0</t>
+          <t>Hospitalized &gt;7 days, acute COVID-19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -429,7 +429,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Anti-infectives @V0</t>
+          <t>Anti-infectives, acute COVID-19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Anti-platelet @V0</t>
+          <t>Anti-platelet, acute COVID-19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Anti-coagulatives @V0</t>
+          <t>Anti-coagulatives, acute COVID-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Immunosuppression @V0</t>
+          <t>Immunosuppression, acute COVID-19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,25 +591,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>60-day FUP</t>
+          <t>2-month FUP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>100-day FUP</t>
+          <t>3-month FUP</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>180-day FUP</t>
+          <t>6-month FUP</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CT
-abnormalities @V3</t>
+          <t>CT abnormalities
+at 180-day visit</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -634,8 +634,8 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CT Severity
-Score @V3 1 – 5</t>
+          <t>CT Severity Score 1-5
+at 180-day visit</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -660,8 +660,8 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT Severity
-Score @V3 &gt; 5</t>
+          <t>CT Severity Score &gt;5
+at 180-day visit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -687,7 +687,7 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Symptoms
-present @V3</t>
+at 180-day visit</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -712,8 +712,8 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lung function
-impairment @V3</t>
+          <t>Lung function impairment
+at 180-day visit</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
